--- a/biology/Histoire de la zoologie et de la botanique/Frederick_Smith/Frederick_Smith.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Frederick_Smith/Frederick_Smith.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Frederick Smith est un entomologiste britannique, né le 30 décembre 1805 et mort le 16 février 1879.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Graveur à l’origine, il obtient après la mort d'Edward Doubleday (1810-1849) un poste d’assistant au département de zoologie du British Museum. À partir de 1875, et jusqu’à sa mort, il est assistant senior au sein du même département. Ce spécialiste des hyménoptères fait paraître le Catalogue of Hymenopterous Insects (de 1853 à 1859, en sept parties) et la cinquième (1851) et sixième partie (1852) de la Nomenclature of Coleopterous Insects. Il dirige la Société entomologique de Londres en 1862-1863.
 </t>
